--- a/medicine/Pharmacie/Gluconate_de_fer(II)/Gluconate_de_fer(II).xlsx
+++ b/medicine/Pharmacie/Gluconate_de_fer(II)/Gluconate_de_fer(II).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le gluconate ferreux ou gluconate de fer(II) est un additif alimentaire (E579) ayant la fonction de séquestrant — stabilisant naturel ou synthétique —, de colorant alimentaire et de complément alimentaire[1].
+Le gluconate ferreux ou gluconate de fer(II) est un additif alimentaire (E579) ayant la fonction de séquestrant — stabilisant naturel ou synthétique —, de colorant alimentaire et de complément alimentaire.
 Origine : sel de fer de l'acide gluconique, E574.
 Fonctions : colorant et complément de fer.
 Aliments où il est présent : olives et compléments alimentaires.
 Apports journaliers recommandés : pas plus de 0,8 mg/kg de masse corporelle.
 Pourrait être toxique à doses excessives et jaunir les dents par effet chronique.
-Il est listé par le codex Alimentarius dans trois classes fonctionnelles : régulateur alimentaire de pH, fixateur de colorant et comme conservateur alimentaire[3].
-Il est notamment utilisé pour teindre les olives vertes en noir[4].
+Il est listé par le codex Alimentarius dans trois classes fonctionnelles : régulateur alimentaire de pH, fixateur de colorant et comme conservateur alimentaire.
+Il est notamment utilisé pour teindre les olives vertes en noir.
 </t>
         </is>
       </c>
